--- a/Data_frame/balancos_definitivos/ASSM3.xlsx
+++ b/Data_frame/balancos_definitivos/ASSM3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR80"/>
+  <dimension ref="A1:AA80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,91 +569,6 @@
           <t>31/03/2007</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2020</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2020</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2020</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2021</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2021</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2021</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2022</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2022</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2022</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2023</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2023</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -739,57 +654,6 @@
       <c r="AA2" t="n">
         <v>10910</v>
       </c>
-      <c r="AB2" t="n">
-        <v>35904999.424</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>36658999.296</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>39805001.728</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>39972999.168</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>18820999.168</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>17615998.976</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>20480999.424</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>20768999.424</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>22854000.64</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>32487000.064</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>33436000.256</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>36422000.64</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>40618000.384</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>39089000.448</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>40101998.592</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>41341001.728</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>43177000.96</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -875,57 +739,6 @@
       <c r="AA3" t="n">
         <v>1902</v>
       </c>
-      <c r="AB3" t="n">
-        <v>12282000.384</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12017000.448</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>12606000.128</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>12417999.872</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>8349000.192</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>7085000.192</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>9370999.808</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>8881000.448000001</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>8771999.744000001</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>12270000.128</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>10476000.256</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>12263999.488</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>14179000.32</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>12378000.384</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>13057999.872</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>13214999.552</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>14616000.512</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1011,57 +824,6 @@
       <c r="AA4" t="n">
         <v>273</v>
       </c>
-      <c r="AB4" t="n">
-        <v>5025999.872</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>3776999.936</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>4617999.872</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>3897999.872</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>3532000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2764000</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>4511000.064</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2880999.936</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>2550000.128</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>4389000.192</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>3108000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>4209999.872</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5841999.872</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>4134000.128</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>4595999.744</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>4416999.936</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>5458999.808</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1147,57 +909,6 @@
       <c r="AA5" t="n">
         <v>0</v>
       </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1283,57 +994,6 @@
       <c r="AA6" t="n">
         <v>1629</v>
       </c>
-      <c r="AB6" t="n">
-        <v>697000</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>588000</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>650000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>724000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>216000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>233000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>264000</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>362000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>324000</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>457000</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>380000</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>505000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>622000</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>609000</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>887000</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1062000</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>1199000.064</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1419,57 +1079,6 @@
       <c r="AA7" t="n">
         <v>0</v>
       </c>
-      <c r="AB7" t="n">
-        <v>5190000.128</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>5806000.128</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>5650999.808</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>6383000.064</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>3739000.064</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>3436000</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>3688000</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>4460000.256</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>4380000.256</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>4845000.192</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>5610999.808</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>6047000.064</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>6466999.808</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6323999.744</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>6374000.128</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>6600000</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>6664000</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1555,57 +1164,6 @@
       <c r="AA8" t="n">
         <v>0</v>
       </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1691,57 +1249,6 @@
       <c r="AA9" t="n">
         <v>0</v>
       </c>
-      <c r="AB9" t="n">
-        <v>1119000.064</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>981000</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>1256000</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1090000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>768000</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>562000</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>683000</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>935000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>876000</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1090000</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>980000</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1140999.936</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1055000</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1010000</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>892000</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>960000</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>1100000</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1827,57 +1334,6 @@
       <c r="AA10" t="n">
         <v>0</v>
       </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1963,57 +1419,6 @@
       <c r="AA11" t="n">
         <v>0</v>
       </c>
-      <c r="AB11" t="n">
-        <v>250000</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>865000</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>431000</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>323000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>94000</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>90000</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>225000</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>243000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>642000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1488999.936</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>397000</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>361000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>193000</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>301000</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>309000</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>176000</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>194000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2099,57 +1504,6 @@
       <c r="AA12" t="n">
         <v>348</v>
       </c>
-      <c r="AB12" t="n">
-        <v>1312000</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1572000</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1324999.936</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1223000.064</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1190000</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1107000.064</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1104999.936</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1120999.936</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1086000</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1795000.064</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1854000</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1382000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1404999.936</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1452000</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>1370000</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>1366000</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>1155000.064</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2235,57 +1589,6 @@
       <c r="AA13" t="n">
         <v>0</v>
       </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2371,57 +1674,6 @@
       <c r="AA14" t="n">
         <v>0</v>
       </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2507,57 +1759,6 @@
       <c r="AA15" t="n">
         <v>0</v>
       </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2643,57 +1844,6 @@
       <c r="AA16" t="n">
         <v>0</v>
       </c>
-      <c r="AB16" t="n">
-        <v>37000</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>20000</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>36000</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>53000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>97000</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>106000</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2779,57 +1929,6 @@
       <c r="AA17" t="n">
         <v>0</v>
       </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2915,57 +2014,6 @@
       <c r="AA18" t="n">
         <v>0</v>
       </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3051,57 +2099,6 @@
       <c r="AA19" t="n">
         <v>0</v>
       </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>45000</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>55000</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>20000</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>23000</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>6000</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>88000</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>136000</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>179000</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>171000</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3187,57 +2184,6 @@
       <c r="AA20" t="n">
         <v>0</v>
       </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3323,57 +2269,6 @@
       <c r="AA21" t="n">
         <v>348</v>
       </c>
-      <c r="AB21" t="n">
-        <v>97000</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>85000</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>102000</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>91000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>178000</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>181000</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>179000</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>140000</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>114000</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>855000</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>648000</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>264000</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>252000</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>270000</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>19000</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>19000</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>23000</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3459,57 +2354,6 @@
       <c r="AA22" t="n">
         <v>0</v>
       </c>
-      <c r="AB22" t="n">
-        <v>3371000.064</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>3561999.872</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>3969999.872</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>4076000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>769000</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>784000</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>798000</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>810000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>789000</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>797000</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>807000</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>823000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>833000</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>838000</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>837000</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>849000</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>864000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3595,57 +2439,6 @@
       <c r="AA23" t="n">
         <v>8591</v>
       </c>
-      <c r="AB23" t="n">
-        <v>14652000.256</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>15048999.936</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>16974999.552</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>17302999.04</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>7475999.744</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>7602999.808</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>8160000</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>8897000.448000001</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>10320000</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>12855000.064</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>15479000.064</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>16935000.064</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>19182999.552</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>19388000.256</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>19804999.68</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>20785000.448</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>21369999.36</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3731,57 +2524,6 @@
       <c r="AA24" t="n">
         <v>69</v>
       </c>
-      <c r="AB24" t="n">
-        <v>4288000</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>4458999.808</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>4928999.936</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>4952999.936</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1037000</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1037000</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1047000</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1060000</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1887000.064</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>4769999.872</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>4819999.744</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>5017999.872</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>5017999.872</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>5032999.936</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>5032000</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>5126000.128</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>5171999.744</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3867,57 +2609,6 @@
       <c r="AA25" t="n">
         <v>0</v>
       </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4003,57 +2694,6 @@
       <c r="AA26" t="n">
         <v>10910</v>
       </c>
-      <c r="AB26" t="n">
-        <v>35904999.424</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>36658999.296</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>39805001.728</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>39972999.168</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>18820999.168</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>17615998.976</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>20480999.424</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>20768999.424</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>22854000.64</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>32487000.064</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>33436000.256</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>36422000.64</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>40618000.384</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>39089000.448</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>40101998.592</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>41341001.728</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>43177000.96</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4139,57 +2779,6 @@
       <c r="AA27" t="n">
         <v>9194</v>
       </c>
-      <c r="AB27" t="n">
-        <v>13930000.384</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>13335000.064</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>13489000.448</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>15173999.616</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>8723000.32</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>7248000</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>8006000.128</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>9166999.551999999</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>8643999.744000001</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>11374999.552</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>11050000.384</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>13493000.192</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>16416000</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>15322999.808</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>15747999.744</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>16629999.616</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>16424999.936</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4275,57 +2864,6 @@
       <c r="AA28" t="n">
         <v>0</v>
       </c>
-      <c r="AB28" t="n">
-        <v>572000</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>572000</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>645000</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>775000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>371000</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>410000</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>408000</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>496000</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>425000</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>454000</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>467000</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>616000</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>584000</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>583000</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>542000</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>683000</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>624000</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4411,57 +2949,6 @@
       <c r="AA29" t="n">
         <v>444</v>
       </c>
-      <c r="AB29" t="n">
-        <v>9770000.384</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7888000</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>7943000.064</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>8137999.872</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>5057999.872</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>4124000</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>4504999.936</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>5310000.128</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>5942000.128</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>6798000.128</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>6943000.064</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>9262999.551999999</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>12999000.064</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>12060999.68</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>12764000.256</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>12261000.192</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>12110000.128</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4547,57 +3034,6 @@
       <c r="AA30" t="n">
         <v>1683</v>
       </c>
-      <c r="AB30" t="n">
-        <v>327000</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>429000</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>646000</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>464000</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>528000</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>203000</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>282000</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>323000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>158000</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>139000</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>207000</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>222000</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>265000</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>225000</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>233000</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>263000</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>298000</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4683,57 +3119,6 @@
       <c r="AA31" t="n">
         <v>2791</v>
       </c>
-      <c r="AB31" t="n">
-        <v>1472000</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>2503000.064</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>2264999.936</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>3702000.128</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>2120000</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>1864000</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>2191000.064</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>2379000.064</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>613000</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>302000</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>187000</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>833000</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>1260000</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>1339000.064</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>1243000.064</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>2624999.936</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>2115000.064</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4819,57 +3204,6 @@
       <c r="AA32" t="n">
         <v>3362</v>
       </c>
-      <c r="AB32" t="n">
-        <v>152000</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>321000</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>363000</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>226000</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>41000</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>85000</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>104000</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>110000</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>368000</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>2558000.128</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>2240999.936</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>1340000</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>201000</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>173000</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4955,57 +3289,6 @@
       <c r="AA33" t="n">
         <v>0</v>
       </c>
-      <c r="AB33" t="n">
-        <v>11000</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>277000</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>22000</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>85000</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>54000</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>168000</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>168000</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>111000</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>68000</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5091,57 +3374,6 @@
       <c r="AA34" t="n">
         <v>658</v>
       </c>
-      <c r="AB34" t="n">
-        <v>1625999.936</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1550000</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>1617000.064</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1591999.936</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>583000</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>477000</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>516000</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>495000</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>970000</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>956000</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>1005000</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>1219000.064</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>996000.064</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>874000</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>966000</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>798000</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>1278000</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5227,57 +3459,6 @@
       <c r="AA35" t="n">
         <v>256</v>
       </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5363,57 +3544,6 @@
       <c r="AA36" t="n">
         <v>0</v>
       </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5499,57 +3629,6 @@
       <c r="AA37" t="n">
         <v>11659</v>
       </c>
-      <c r="AB37" t="n">
-        <v>12273999.872</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>12839999.488</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>14128000</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>12101000.192</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>8688000</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>8778000.384</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>10558000.128</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>9200000</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>11443999.744</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>18127998.976</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>19075000.32</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>19334000.64</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>20305999.872</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>19786000.384</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>20223000.576</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>20386000.896</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>22122000.384</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5635,57 +3714,6 @@
       <c r="AA38" t="n">
         <v>2812</v>
       </c>
-      <c r="AB38" t="n">
-        <v>7349000.192</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>7673999.872</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>8001999.872</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>6198000.128</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>5711000.064</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>5708000.256</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>7344000</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>5784000</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>7420000.256</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>10696999.936</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>11178999.808</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>11301999.616</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>11331000.32</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>11543000.064</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>11976999.936</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>11468999.68</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>13068999.68</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5771,57 +3799,6 @@
       <c r="AA39" t="n">
         <v>471</v>
       </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>1476999.936</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>789000</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>82000</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>60000</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>56000</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5907,57 +3884,6 @@
       <c r="AA40" t="n">
         <v>1085</v>
       </c>
-      <c r="AB40" t="n">
-        <v>3383000.064</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>3590000.128</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>4589000.192</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>4497999.872</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>2612000</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>2687000.064</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>2889999.872</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>3127000.064</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>3819000.064</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>5747999.744</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>6889999.872</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>7758000.128</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>8718999.551999999</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>7946999.808</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>7991000.064</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>8625999.872</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>8753000.448000001</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6043,57 +3969,6 @@
       <c r="AA41" t="n">
         <v>0</v>
       </c>
-      <c r="AB41" t="n">
-        <v>1191000.064</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>1224000</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>1172999.936</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1029000</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>82000</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>91000</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>50000</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6179,57 +4054,6 @@
       <c r="AA42" t="n">
         <v>0</v>
       </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6315,57 +4139,6 @@
       <c r="AA43" t="n">
         <v>7291</v>
       </c>
-      <c r="AB43" t="n">
-        <v>349000</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>351000</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>363000</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>375000</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>282000</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>291000</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>251000</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>238000</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>205000</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>206000</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>217000</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>159000</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>165000</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>211000</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>228000</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>251000</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>263000</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6451,57 +4224,6 @@
       <c r="AA44" t="n">
         <v>0</v>
       </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6587,57 +4309,6 @@
       <c r="AA45" t="n">
         <v>0</v>
       </c>
-      <c r="AB45" t="n">
-        <v>2000</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>33000</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>31000</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>29000</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>27000</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>40000</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>37000</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6723,57 +4394,6 @@
       <c r="AA46" t="n">
         <v>0</v>
       </c>
-      <c r="AB46" t="n">
-        <v>2603000.064</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>2692000</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>3100000</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>3150000.128</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6859,57 +4479,6 @@
       <c r="AA47" t="n">
         <v>-9943</v>
       </c>
-      <c r="AB47" t="n">
-        <v>7098000.128</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>7791999.744000001</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>9088000.255999999</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>9548000.255999999</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>1410000</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>1590000</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>1916999.936</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>2401999.872</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>2766000.128</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>2984000</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>3311000.064</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>3595000.064</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>3896000</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>3980000</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>4131000.064</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>4325000.192</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>4630000.128</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6995,57 +4564,6 @@
       <c r="AA48" t="n">
         <v>17516</v>
       </c>
-      <c r="AB48" t="n">
-        <v>4421000.192</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>4478000.128</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>4478000.128</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>4749000.192</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>761000</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>761000</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>779000</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>787000</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>788000</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>789000</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>1255000.064</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>1258000</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>1263000.064</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>1264999.936</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>1264999.936</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>1268999.936</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>1272000</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7131,57 +4649,6 @@
       <c r="AA49" t="n">
         <v>0</v>
       </c>
-      <c r="AB49" t="n">
-        <v>18000</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>20000</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>21000</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>22000</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>4000</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>7000</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>11000</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>13000</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>18000</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>22000</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>27000</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>29000</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>36000</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>45000</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>45000</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>49000</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>56000</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7267,57 +4734,6 @@
       <c r="AA50" t="n">
         <v>4402</v>
       </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7403,57 +4819,6 @@
       <c r="AA51" t="n">
         <v>0</v>
       </c>
-      <c r="AB51" t="n">
-        <v>2496999.936</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>2648000</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>2873999.872</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>3052000</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>645000</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>822000</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>1127000.064</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>1602000</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>1960999.936</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>2175000.064</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>2030000</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>2311000.064</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>2599000.064</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>2671000.064</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>2827000.064</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>3012000</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>3308999.936</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7539,57 +4904,6 @@
       <c r="AA52" t="n">
         <v>-31861</v>
       </c>
-      <c r="AB52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR52" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7675,57 +4989,6 @@
       <c r="AA53" t="n">
         <v>0</v>
       </c>
-      <c r="AB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7811,57 +5074,6 @@
       <c r="AA54" t="n">
         <v>0</v>
       </c>
-      <c r="AB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7947,57 +5159,6 @@
       <c r="AA55" t="n">
         <v>0</v>
       </c>
-      <c r="AB55" t="n">
-        <v>162000</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>646000</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>1715000.064</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1724999.936</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>-2000</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>-3000</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>-2000</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="AP55" t="n">
-        <v>-6000</v>
-      </c>
-      <c r="AQ55" t="n">
-        <v>-5000</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>-7000</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8081,57 +5242,6 @@
         <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8217,23 +5327,6 @@
       <c r="AA57" t="n">
         <v>2039</v>
       </c>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
-      <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="inlineStr"/>
-      <c r="AL57" t="inlineStr"/>
-      <c r="AM57" t="inlineStr"/>
-      <c r="AN57" t="inlineStr"/>
-      <c r="AO57" t="inlineStr"/>
-      <c r="AP57" t="inlineStr"/>
-      <c r="AQ57" t="inlineStr"/>
-      <c r="AR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8317,23 +5410,6 @@
       <c r="AA58" t="n">
         <v>-198</v>
       </c>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
-      <c r="AH58" t="inlineStr"/>
-      <c r="AI58" t="inlineStr"/>
-      <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="inlineStr"/>
-      <c r="AL58" t="inlineStr"/>
-      <c r="AM58" t="inlineStr"/>
-      <c r="AN58" t="inlineStr"/>
-      <c r="AO58" t="inlineStr"/>
-      <c r="AP58" t="inlineStr"/>
-      <c r="AQ58" t="inlineStr"/>
-      <c r="AR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8417,55 +5493,6 @@
       <c r="AA59" t="n">
         <v>1841</v>
       </c>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="n">
-        <v>12933000.192</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>13477999.616</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>14572000.256</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>-4939998.208</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>9447999.488</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>10049000.448</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>10844999.68</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>11556000.768</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>11443000.32</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>13290999.808</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>13831999.488</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>15954000.896</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>15096000.512</v>
-      </c>
-      <c r="AP59" t="n">
-        <v>15984000</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>17002000.384</v>
-      </c>
-      <c r="AR59" t="n">
-        <v>18420998.144</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8549,55 +5576,6 @@
       <c r="AA60" t="n">
         <v>-1261</v>
       </c>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="n">
-        <v>-10474000.384</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>-10853999.616</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>-11731000.32</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>2929999.872</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>-7941000.192</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>-8327000.064</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>-8917999.616</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>-9566999.551999999</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>-9617000.448000001</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>-11146000.384</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>-11578000.384</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>-13215996.928</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>-12668000.256</v>
-      </c>
-      <c r="AP60" t="n">
-        <v>-13420000.256</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>-14245000.192</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>-15348998.144</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8681,55 +5659,6 @@
       <c r="AA61" t="n">
         <v>580</v>
       </c>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="n">
-        <v>2459000.064</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>2624000</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>2840999.936</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>-2010000.128</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>1507000.064</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>1722000</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>1927000.064</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>1988999.808</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>1826000</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>2144999.936</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>2254000.128</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>2738000.384</v>
-      </c>
-      <c r="AO61" t="n">
-        <v>2428000</v>
-      </c>
-      <c r="AP61" t="n">
-        <v>2564000</v>
-      </c>
-      <c r="AQ61" t="n">
-        <v>2756999.936</v>
-      </c>
-      <c r="AR61" t="n">
-        <v>3072000.256</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8813,55 +5742,6 @@
       <c r="AA62" t="n">
         <v>-147</v>
       </c>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="n">
-        <v>-1323000.064</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>-1334000</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>-1484000</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>1330000</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>-756000</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>-804000</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>-811000</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>-963000.128</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>-929000</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>-1006000</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>-1062000</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>-1381999.872</v>
-      </c>
-      <c r="AO62" t="n">
-        <v>-1306000</v>
-      </c>
-      <c r="AP62" t="n">
-        <v>-1303000.064</v>
-      </c>
-      <c r="AQ62" t="n">
-        <v>-1368000</v>
-      </c>
-      <c r="AR62" t="n">
-        <v>-1433999.744</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8944,55 +5824,6 @@
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="n">
         <v>-452</v>
-      </c>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="n">
-        <v>-337000</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>-302000</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>-310000</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>514000</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>-137000</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>-152000</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>-167000</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>-132000</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>-168000</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>-193000</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>-211000</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>-215000</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>-206000</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>-177000</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>-209000</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>-239000</v>
       </c>
     </row>
     <row r="64">
@@ -9027,55 +5858,6 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR64" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9159,55 +5941,6 @@
       <c r="AA65" t="n">
         <v>5</v>
       </c>
-      <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR65" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9291,55 +6024,6 @@
       <c r="AA66" t="n">
         <v>-28</v>
       </c>
-      <c r="AB66" t="inlineStr"/>
-      <c r="AC66" t="n">
-        <v>-394000</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>-434000</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>-356000</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>584000</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>-146000</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>-184000</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>-161000</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>-200000</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>-212000</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>-247000</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>-249000</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>-283000</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>-309000</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>-359000</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>-305000</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>-371999.936</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9422,55 +6106,6 @@
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="n">
         <v>0</v>
-      </c>
-      <c r="AB67" t="inlineStr"/>
-      <c r="AC67" t="n">
-        <v>-29000</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>-12000</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>59000</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>-18000</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>15000</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>14000</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>12000</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>6000</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>8000</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>16000</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AO67" t="n">
-        <v>12000</v>
-      </c>
-      <c r="AP67" t="n">
-        <v>12000</v>
-      </c>
-      <c r="AQ67" t="n">
-        <v>12000</v>
-      </c>
-      <c r="AR67" t="n">
-        <v>15000</v>
       </c>
     </row>
     <row r="68">
@@ -9555,55 +6190,6 @@
       <c r="AA68" t="n">
         <v>-160</v>
       </c>
-      <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="n">
-        <v>-197000</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>-247000</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>-227000</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>228000</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>-134000</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>-145000</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>-164000</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>-287000</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>-302000</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>-328000</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>-440000</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>-445000.064</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>-630000</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>-628000</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>-737000</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>-736000.064</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9687,55 +6273,6 @@
       <c r="AA69" t="n">
         <v>66</v>
       </c>
-      <c r="AB69" t="inlineStr"/>
-      <c r="AC69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>52000</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>71000</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>65000</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>70000</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>77000</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>70000</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>177000</v>
-      </c>
-      <c r="AO69" t="n">
-        <v>70000</v>
-      </c>
-      <c r="AP69" t="n">
-        <v>59000</v>
-      </c>
-      <c r="AQ69" t="n">
-        <v>83000</v>
-      </c>
-      <c r="AR69" t="n">
-        <v>69000</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9819,55 +6356,6 @@
       <c r="AA70" t="n">
         <v>-226</v>
       </c>
-      <c r="AB70" t="inlineStr"/>
-      <c r="AC70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>-197000</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>-235000</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>-486000</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>-372000</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>-405000</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>-510000</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>-621999.936</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>-700000</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>-687000</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>-820000</v>
-      </c>
-      <c r="AR70" t="n">
-        <v>-805000</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9951,23 +6439,6 @@
       <c r="AA71" t="n">
         <v>0</v>
       </c>
-      <c r="AB71" t="inlineStr"/>
-      <c r="AC71" t="inlineStr"/>
-      <c r="AD71" t="inlineStr"/>
-      <c r="AE71" t="inlineStr"/>
-      <c r="AF71" t="inlineStr"/>
-      <c r="AG71" t="inlineStr"/>
-      <c r="AH71" t="inlineStr"/>
-      <c r="AI71" t="inlineStr"/>
-      <c r="AJ71" t="inlineStr"/>
-      <c r="AK71" t="inlineStr"/>
-      <c r="AL71" t="inlineStr"/>
-      <c r="AM71" t="inlineStr"/>
-      <c r="AN71" t="inlineStr"/>
-      <c r="AO71" t="inlineStr"/>
-      <c r="AP71" t="inlineStr"/>
-      <c r="AQ71" t="inlineStr"/>
-      <c r="AR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10051,23 +6522,6 @@
       <c r="AA72" t="n">
         <v>0</v>
       </c>
-      <c r="AB72" t="inlineStr"/>
-      <c r="AC72" t="inlineStr"/>
-      <c r="AD72" t="inlineStr"/>
-      <c r="AE72" t="inlineStr"/>
-      <c r="AF72" t="inlineStr"/>
-      <c r="AG72" t="inlineStr"/>
-      <c r="AH72" t="inlineStr"/>
-      <c r="AI72" t="inlineStr"/>
-      <c r="AJ72" t="inlineStr"/>
-      <c r="AK72" t="inlineStr"/>
-      <c r="AL72" t="inlineStr"/>
-      <c r="AM72" t="inlineStr"/>
-      <c r="AN72" t="inlineStr"/>
-      <c r="AO72" t="inlineStr"/>
-      <c r="AP72" t="inlineStr"/>
-      <c r="AQ72" t="inlineStr"/>
-      <c r="AR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10151,23 +6605,6 @@
       <c r="AA73" t="n">
         <v>0</v>
       </c>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
-      <c r="AD73" t="inlineStr"/>
-      <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="inlineStr"/>
-      <c r="AG73" t="inlineStr"/>
-      <c r="AH73" t="inlineStr"/>
-      <c r="AI73" t="inlineStr"/>
-      <c r="AJ73" t="inlineStr"/>
-      <c r="AK73" t="inlineStr"/>
-      <c r="AL73" t="inlineStr"/>
-      <c r="AM73" t="inlineStr"/>
-      <c r="AN73" t="inlineStr"/>
-      <c r="AO73" t="inlineStr"/>
-      <c r="AP73" t="inlineStr"/>
-      <c r="AQ73" t="inlineStr"/>
-      <c r="AR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10251,55 +6688,6 @@
       <c r="AA74" t="n">
         <v>-202</v>
       </c>
-      <c r="AB74" t="inlineStr"/>
-      <c r="AC74" t="n">
-        <v>179000</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>295000</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>523000</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>627999.936</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>349000</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>451000</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>636000</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>412999.936</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>223000</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>381000</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>308000</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>423000.064</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>-11000</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>109000</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>150000</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>306000</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10383,55 +6771,6 @@
       <c r="AA75" t="n">
         <v>9</v>
       </c>
-      <c r="AB75" t="inlineStr"/>
-      <c r="AC75" t="n">
-        <v>-94000</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>-216000</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>-191000</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>-203000</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>-101000</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>-164000</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>-120000</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>19000</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>-18000</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>-27000</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>-29000</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>2000</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>-8000</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10515,55 +6854,6 @@
       <c r="AA76" t="n">
         <v>0</v>
       </c>
-      <c r="AB76" t="inlineStr"/>
-      <c r="AC76" t="n">
-        <v>37000</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>148000</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>149000</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>-66000</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>-8000</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>18000</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>22000</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>95000</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>9000</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>-35000</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>2000</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>-16000</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>83000</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>45000</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>43000</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>-9000</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10647,23 +6937,6 @@
       <c r="AA77" t="n">
         <v>0</v>
       </c>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
-      <c r="AD77" t="inlineStr"/>
-      <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="inlineStr"/>
-      <c r="AG77" t="inlineStr"/>
-      <c r="AH77" t="inlineStr"/>
-      <c r="AI77" t="inlineStr"/>
-      <c r="AJ77" t="inlineStr"/>
-      <c r="AK77" t="inlineStr"/>
-      <c r="AL77" t="inlineStr"/>
-      <c r="AM77" t="inlineStr"/>
-      <c r="AN77" t="inlineStr"/>
-      <c r="AO77" t="inlineStr"/>
-      <c r="AP77" t="inlineStr"/>
-      <c r="AQ77" t="inlineStr"/>
-      <c r="AR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10747,23 +7020,6 @@
       <c r="AA78" t="n">
         <v>0</v>
       </c>
-      <c r="AB78" t="inlineStr"/>
-      <c r="AC78" t="inlineStr"/>
-      <c r="AD78" t="inlineStr"/>
-      <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="inlineStr"/>
-      <c r="AG78" t="inlineStr"/>
-      <c r="AH78" t="inlineStr"/>
-      <c r="AI78" t="inlineStr"/>
-      <c r="AJ78" t="inlineStr"/>
-      <c r="AK78" t="inlineStr"/>
-      <c r="AL78" t="inlineStr"/>
-      <c r="AM78" t="inlineStr"/>
-      <c r="AN78" t="inlineStr"/>
-      <c r="AO78" t="inlineStr"/>
-      <c r="AP78" t="inlineStr"/>
-      <c r="AQ78" t="inlineStr"/>
-      <c r="AR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10797,37 +7053,6 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="inlineStr"/>
-      <c r="AC79" t="n">
-        <v>-22000</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>-52000</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>-44000</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>-40000</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ79" t="inlineStr"/>
-      <c r="AK79" t="inlineStr"/>
-      <c r="AL79" t="inlineStr"/>
-      <c r="AM79" t="inlineStr"/>
-      <c r="AN79" t="inlineStr"/>
-      <c r="AO79" t="inlineStr"/>
-      <c r="AP79" t="inlineStr"/>
-      <c r="AQ79" t="inlineStr"/>
-      <c r="AR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10910,55 +7135,6 @@
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="n">
         <v>-193</v>
-      </c>
-      <c r="AB80" t="inlineStr"/>
-      <c r="AC80" t="n">
-        <v>100000</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>175000</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>437000</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>686000</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>240000</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>305000</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>538000</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>527000</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>214000</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>319000</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>281000</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>406000</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>72000</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>156000</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>185000</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>297000</v>
       </c>
     </row>
   </sheetData>
